--- a/artfynd/A 60614-2022 artfynd.xlsx
+++ b/artfynd/A 60614-2022 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1277,6 +1277,2580 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131314796</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>497551</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6980337</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131314802</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79002</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>497562</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6980264</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131314805</v>
+      </c>
+      <c r="B9" t="n">
+        <v>91830</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>497523</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6980392</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131314711</v>
+      </c>
+      <c r="B10" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>497604</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6980360</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på flera granar.</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131314708</v>
+      </c>
+      <c r="B11" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>497662</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6980257</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131314712</v>
+      </c>
+      <c r="B12" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>497629</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6980392</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131314699</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>497595</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6980424</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, några meter upp på en gran nära vägen.</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131314709</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>497652</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6980293</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Barrblandskog.</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131314696</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>497570</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6980217</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran.</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131314795</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>497547</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6980312</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131314700</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>497592</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6980431</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en tall.</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131314797</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>497546</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6980329</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131314713</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>497613</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6980422</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Långväxt garnlav på en gran.</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131314710</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>497642</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6980349</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på flera granar.</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131314799</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>497565</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6980371</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131314800</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>497562</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6980376</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131314772</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>497715</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6980084</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131314798</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>497540</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6980397</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Äldre bohål i grantickerötad högstubbe av gran. På ca 1 meters höjd över marken och ca 45 - 50 mm i diameter.</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131314840</v>
+      </c>
+      <c r="B25" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>497586</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6980364</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131314771</v>
+      </c>
+      <c r="B26" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Rensved NV, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>497557</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6980240</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Lockne</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 60614-2022 artfynd.xlsx
+++ b/artfynd/A 60614-2022 artfynd.xlsx
@@ -1533,7 +1533,7 @@
         <v>131314805</v>
       </c>
       <c r="B9" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131314696</v>
+        <v>131314795</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497570</v>
+        <v>497547</v>
       </c>
       <c r="R15" t="n">
-        <v>6980217</v>
+        <v>6980312</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2400,14 +2400,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2425,7 +2420,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131314795</v>
+        <v>131314696</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2468,10 +2463,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>497547</v>
+        <v>497570</v>
       </c>
       <c r="R16" t="n">
-        <v>6980312</v>
+        <v>6980217</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2508,7 +2503,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2535,9 +2530,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131314710</v>
+        <v>131314800</v>
       </c>
       <c r="B20" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2957,26 +2957,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2984,10 +2989,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>497642</v>
+        <v>497562</v>
       </c>
       <c r="R20" t="n">
-        <v>6980349</v>
+        <v>6980376</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3024,7 +3029,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3033,7 +3038,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3207,10 +3211,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131314800</v>
+        <v>131314710</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3218,31 +3222,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3250,10 +3249,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>497562</v>
+        <v>497642</v>
       </c>
       <c r="R22" t="n">
-        <v>6980376</v>
+        <v>6980349</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3290,7 +3289,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Långväxta bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3299,6 +3298,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
